--- a/FitnessData/dynamic12/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic12/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>156.39</v>
+        <v>161.18</v>
       </c>
       <c r="B2" t="n">
-        <v>167.47</v>
+        <v>158.47</v>
       </c>
       <c r="C2" t="n">
-        <v>154.56</v>
+        <v>179.34</v>
       </c>
       <c r="D2" t="n">
-        <v>177.19</v>
+        <v>149.36</v>
       </c>
       <c r="E2" t="n">
-        <v>162.72</v>
+        <v>149.73</v>
       </c>
       <c r="F2" t="n">
-        <v>169.39</v>
+        <v>155.12</v>
       </c>
       <c r="G2" t="n">
-        <v>165.78</v>
+        <v>141.62</v>
       </c>
       <c r="H2" t="n">
-        <v>138.78</v>
+        <v>152.23</v>
       </c>
       <c r="I2" t="n">
-        <v>168.05</v>
+        <v>164.11</v>
       </c>
       <c r="J2" t="n">
-        <v>167.04</v>
+        <v>153.81</v>
       </c>
       <c r="K2" t="n">
-        <v>154.95</v>
+        <v>148.75</v>
       </c>
       <c r="L2" t="n">
-        <v>175.02</v>
+        <v>152.67</v>
       </c>
       <c r="M2" t="n">
-        <v>156.22</v>
+        <v>150.92</v>
       </c>
       <c r="N2" t="n">
-        <v>156.19</v>
+        <v>157.36</v>
       </c>
       <c r="O2" t="n">
-        <v>147.88</v>
+        <v>138.14</v>
       </c>
       <c r="P2" t="n">
-        <v>178.3</v>
+        <v>148.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>159.59</v>
+        <v>132.72</v>
       </c>
       <c r="R2" t="n">
-        <v>149.56</v>
+        <v>142.18</v>
       </c>
       <c r="S2" t="n">
-        <v>177.72</v>
+        <v>160.03</v>
       </c>
       <c r="T2" t="n">
-        <v>157.97</v>
+        <v>136.99</v>
       </c>
       <c r="U2" t="n">
-        <v>138.78</v>
+        <v>132.72</v>
       </c>
       <c r="V2" t="n">
-        <v>162.0385</v>
+        <v>151.668</v>
       </c>
       <c r="W2" t="n">
-        <v>10.74444104739994</v>
+        <v>10.64568734029741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>389.29</v>
+        <v>248</v>
       </c>
       <c r="B3" t="n">
-        <v>280.7</v>
+        <v>303.48</v>
       </c>
       <c r="C3" t="n">
-        <v>385.28</v>
+        <v>286.24</v>
       </c>
       <c r="D3" t="n">
-        <v>247.3</v>
+        <v>275.26</v>
       </c>
       <c r="E3" t="n">
-        <v>281.34</v>
+        <v>252.46</v>
       </c>
       <c r="F3" t="n">
-        <v>281.46</v>
+        <v>265.14</v>
       </c>
       <c r="G3" t="n">
-        <v>294.2</v>
+        <v>265.54</v>
       </c>
       <c r="H3" t="n">
-        <v>365.19</v>
+        <v>276.78</v>
       </c>
       <c r="I3" t="n">
-        <v>311.99</v>
+        <v>245.88</v>
       </c>
       <c r="J3" t="n">
-        <v>331.15</v>
+        <v>263</v>
       </c>
       <c r="K3" t="n">
-        <v>317.2</v>
+        <v>326.6</v>
       </c>
       <c r="L3" t="n">
-        <v>373.85</v>
+        <v>368.93</v>
       </c>
       <c r="M3" t="n">
-        <v>277.1</v>
+        <v>297.84</v>
       </c>
       <c r="N3" t="n">
-        <v>307.83</v>
+        <v>293.66</v>
       </c>
       <c r="O3" t="n">
-        <v>313.3</v>
+        <v>272.5</v>
       </c>
       <c r="P3" t="n">
-        <v>280.46</v>
+        <v>292.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>364.02</v>
+        <v>289.78</v>
       </c>
       <c r="R3" t="n">
-        <v>285.24</v>
+        <v>259.52</v>
       </c>
       <c r="S3" t="n">
-        <v>331.56</v>
+        <v>255.18</v>
       </c>
       <c r="T3" t="n">
-        <v>291.96</v>
+        <v>320.84</v>
       </c>
       <c r="U3" t="n">
-        <v>247.3</v>
+        <v>245.88</v>
       </c>
       <c r="V3" t="n">
-        <v>315.521</v>
+        <v>282.939</v>
       </c>
       <c r="W3" t="n">
-        <v>40.99916287977238</v>
+        <v>30.52498733134787</v>
       </c>
     </row>
   </sheetData>
